--- a/ContrastVariation/table_start.xlsx
+++ b/ContrastVariation/table_start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Desktop/sastutorials-beta-main/ContrastVariation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreashlarsen/Desktop/SAStutorials-main-23May2024/ContrastVariation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B4A031-08AD-6448-A05F-ED18EC7A1D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F46073-D457-9C48-B48C-66808606C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{E74035E8-3017-E748-B8F3-02E3C2BC64D3}"/>
+    <workbookView xWindow="8200" yWindow="5060" windowWidth="27640" windowHeight="16940" xr2:uid="{E74035E8-3017-E748-B8F3-02E3C2BC64D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>D2O</t>
   </si>
   <si>
-    <t>DDM tail</t>
-  </si>
-  <si>
     <t>heavy water</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>C12H14D7O11</t>
   </si>
   <si>
-    <t>dDDM tail</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>dDDM head</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
@@ -95,18 +86,9 @@
     <t>SLD = SL/V, fm/Å3</t>
   </si>
   <si>
-    <t>SLD-SLD_D2O, fm/Å3</t>
-  </si>
-  <si>
     <t>chemical formula</t>
   </si>
   <si>
-    <t>C12H(25-X)DX</t>
-  </si>
-  <si>
-    <t>C12H(21-X)DXO11</t>
-  </si>
-  <si>
     <t>hydrogen</t>
   </si>
   <si>
@@ -122,7 +104,40 @@
     <t>water</t>
   </si>
   <si>
-    <t>Nist tabular alues</t>
+    <t>NIST tabular values</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>scattering length density</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>scattering length</t>
+  </si>
+  <si>
+    <t>DDM tail in D2O</t>
+  </si>
+  <si>
+    <t>SLD-SLD_solvent, fm/Å3</t>
+  </si>
+  <si>
+    <t>DDM tail in H2O</t>
+  </si>
+  <si>
+    <t>solvents</t>
+  </si>
+  <si>
+    <t>DDM in solvents</t>
+  </si>
+  <si>
+    <t>elements</t>
   </si>
 </sst>
 </file>
@@ -132,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +176,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,27 +193,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -204,12 +212,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,244 +532,317 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A288169E-4EB3-5841-8DFE-271261988013}">
-  <dimension ref="B2:M36"/>
+  <dimension ref="A2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="E2" s="3"/>
       <c r="G2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-3.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.6710000000000003</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.6459999999999999</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5.8029999999999999</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>2*D5+D7</f>
+        <v>19.145</v>
+      </c>
+      <c r="E11" s="3">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11/E11</f>
+        <v>0.63816666666666666</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <f>2*D4+D7</f>
+        <v>-1.6770000000000005</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12/E12</f>
+        <v>-5.5900000000000019E-2</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <f>12*D6+21*D4+11*D7</f>
+        <v>65.044999999999987</v>
+      </c>
+      <c r="E14" s="3">
+        <v>350.4</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D14/E14</f>
+        <v>0.18563070776255705</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14-$F$12</f>
+        <v>0.24153070776255708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <f>12*D6+14*D4+7*D5+11*D7</f>
+        <v>137.922</v>
+      </c>
+      <c r="E15" s="3">
+        <v>350.4</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15/E15</f>
+        <v>0.39361301369863017</v>
+      </c>
+      <c r="G15" s="2">
+        <f>F15-$F$11</f>
+        <v>-0.24455365296803649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <f>12*D6+25*D4</f>
+        <v>-13.748000000000005</v>
+      </c>
+      <c r="E16" s="3">
+        <v>350.2</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16/E16</f>
+        <v>-3.9257567104511719E-2</v>
+      </c>
+      <c r="G16" s="2">
+        <f>F16-$F$12</f>
+        <v>1.66424328954883E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>-3.74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>6.6710000000000003</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>6.6459999999999999</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
-        <v>5.8029999999999999</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <v>30</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <v>350.4</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>350.4</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
+      <c r="D17" s="2">
+        <f>12*D6+25*D4</f>
+        <v>-13.748000000000005</v>
+      </c>
+      <c r="E17" s="3">
         <v>350.2</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="2">
+        <f>D17/E17</f>
+        <v>-3.9257567104511719E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <f>F17-$F$11</f>
+        <v>-0.67742423377117833</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <v>350.4</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
-        <v>350.2</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F28" s="2"/>
